--- a/Week 4/Day 4/loan_data.xlsx
+++ b/Week 4/Day 4/loan_data.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qalearning.sharepoint.com/sites/Data2/Shared Documents/General/New Course Development 2023/Python for Data Handling/labs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\my_qa_repo\Week 4\Day 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2271130E-C67D-4C72-A834-7833F639E4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3782DD-351C-4839-A918-1215B9C74DCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2210" yWindow="1530" windowWidth="14400" windowHeight="7360"/>
+    <workbookView xWindow="2205" yWindow="1530" windowWidth="14400" windowHeight="7365" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="March" sheetId="1" r:id="rId1"/>
+    <sheet name="April" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -48,11 +49,23 @@
   <si>
     <t>Long Term</t>
   </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -886,14 +899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G857"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>567</v>
       </c>
@@ -939,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>523</v>
       </c>
@@ -962,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>544</v>
       </c>
@@ -985,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>370</v>
       </c>
@@ -1005,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>756</v>
       </c>
@@ -1028,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>929</v>
       </c>
@@ -1051,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>373</v>
       </c>
@@ -1074,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>818</v>
       </c>
@@ -1097,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>284</v>
       </c>
@@ -1120,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>621</v>
       </c>
@@ -1143,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>404</v>
       </c>
@@ -1166,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>763</v>
       </c>
@@ -1189,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>327</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>664</v>
       </c>
@@ -1235,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>590</v>
       </c>
@@ -1258,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -1281,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>931</v>
       </c>
@@ -1304,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>400</v>
       </c>
@@ -1327,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>905</v>
       </c>
@@ -1350,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>556</v>
       </c>
@@ -1373,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>673</v>
       </c>
@@ -1393,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>537</v>
       </c>
@@ -1416,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>616</v>
       </c>
@@ -1439,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>422</v>
       </c>
@@ -1462,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>73</v>
       </c>
@@ -1485,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>466</v>
       </c>
@@ -1508,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>363</v>
       </c>
@@ -1531,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>291</v>
       </c>
@@ -1554,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>326</v>
       </c>
@@ -1577,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>483</v>
       </c>
@@ -1600,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>563</v>
       </c>
@@ -1623,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>838</v>
       </c>
@@ -1646,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>740</v>
       </c>
@@ -1669,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>216</v>
       </c>
@@ -1692,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>302</v>
       </c>
@@ -1715,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>236</v>
       </c>
@@ -1738,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1758,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>606</v>
       </c>
@@ -1781,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>716</v>
       </c>
@@ -1804,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>471</v>
       </c>
@@ -1827,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>158</v>
       </c>
@@ -1850,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>986</v>
       </c>
@@ -1873,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>841</v>
       </c>
@@ -1896,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>342</v>
       </c>
@@ -1919,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>210</v>
       </c>
@@ -1942,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>778</v>
       </c>
@@ -1965,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>441</v>
       </c>
@@ -1988,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>782</v>
       </c>
@@ -2011,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>424</v>
       </c>
@@ -2034,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>566</v>
       </c>
@@ -2057,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>789</v>
       </c>
@@ -2080,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>301</v>
       </c>
@@ -2103,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>583</v>
       </c>
@@ -2126,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>268</v>
       </c>
@@ -2149,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>608</v>
       </c>
@@ -2172,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>407</v>
       </c>
@@ -2195,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>67</v>
       </c>
@@ -2218,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>296</v>
       </c>
@@ -2241,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>669</v>
       </c>
@@ -2264,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>316</v>
       </c>
@@ -2287,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>624</v>
       </c>
@@ -2310,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>643</v>
       </c>
@@ -2330,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>703</v>
       </c>
@@ -2353,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>653</v>
       </c>
@@ -2376,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>864</v>
       </c>
@@ -2399,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>163</v>
       </c>
@@ -2422,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>472</v>
       </c>
@@ -2445,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>900</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>749</v>
       </c>
@@ -2491,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>155</v>
       </c>
@@ -2514,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>355</v>
       </c>
@@ -2537,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>767</v>
       </c>
@@ -2560,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>805</v>
       </c>
@@ -2583,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>493</v>
       </c>
@@ -2606,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>577</v>
       </c>
@@ -2629,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>196</v>
       </c>
@@ -2652,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>213</v>
       </c>
@@ -2675,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>221</v>
       </c>
@@ -2698,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>456</v>
       </c>
@@ -2721,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>127</v>
       </c>
@@ -2744,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>330</v>
       </c>
@@ -2767,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>546</v>
       </c>
@@ -2790,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>446</v>
       </c>
@@ -2813,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>194</v>
       </c>
@@ -2836,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>808</v>
       </c>
@@ -2859,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>361</v>
       </c>
@@ -2882,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>83</v>
       </c>
@@ -2902,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>979</v>
       </c>
@@ -2925,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>41</v>
       </c>
@@ -2948,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>995</v>
       </c>
@@ -2971,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>144</v>
       </c>
@@ -2994,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>820</v>
       </c>
@@ -3017,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>177</v>
       </c>
@@ -3040,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>340</v>
       </c>
@@ -3063,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>709</v>
       </c>
@@ -3086,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>250</v>
       </c>
@@ -3109,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>964</v>
       </c>
@@ -3132,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>515</v>
       </c>
@@ -3155,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>26</v>
       </c>
@@ -3178,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>587</v>
       </c>
@@ -3201,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>133</v>
       </c>
@@ -3224,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>103</v>
       </c>
@@ -3247,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>478</v>
       </c>
@@ -3270,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>835</v>
       </c>
@@ -3293,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>633</v>
       </c>
@@ -3316,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>769</v>
       </c>
@@ -3339,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>399</v>
       </c>
@@ -3362,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>555</v>
       </c>
@@ -3385,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>580</v>
       </c>
@@ -3408,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>137</v>
       </c>
@@ -3431,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>118</v>
       </c>
@@ -3454,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>397</v>
       </c>
@@ -3477,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>332</v>
       </c>
@@ -3500,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>165</v>
       </c>
@@ -3523,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>741</v>
       </c>
@@ -3546,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>307</v>
       </c>
@@ -3569,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>380</v>
       </c>
@@ -3592,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>713</v>
       </c>
@@ -3615,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>978</v>
       </c>
@@ -3638,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>944</v>
       </c>
@@ -3661,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>349</v>
       </c>
@@ -3684,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>240</v>
       </c>
@@ -3707,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>287</v>
       </c>
@@ -3730,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>54</v>
       </c>
@@ -3753,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>711</v>
       </c>
@@ -3776,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3</v>
       </c>
@@ -3799,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>64</v>
       </c>
@@ -3822,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>630</v>
       </c>
@@ -3845,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>926</v>
       </c>
@@ -3868,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>335</v>
       </c>
@@ -3891,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>889</v>
       </c>
@@ -3914,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>375</v>
       </c>
@@ -3937,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>980</v>
       </c>
@@ -3960,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>438</v>
       </c>
@@ -3983,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>297</v>
       </c>
@@ -4006,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>350</v>
       </c>
@@ -4029,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>597</v>
       </c>
@@ -4052,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>804</v>
       </c>
@@ -4075,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>480</v>
       </c>
@@ -4098,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>170</v>
       </c>
@@ -4121,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>800</v>
       </c>
@@ -4144,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>500</v>
       </c>
@@ -4167,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>91</v>
       </c>
@@ -4190,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>550</v>
       </c>
@@ -4213,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>707</v>
       </c>
@@ -4236,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>251</v>
       </c>
@@ -4259,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>419</v>
       </c>
@@ -4282,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>600</v>
       </c>
@@ -4305,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>162</v>
       </c>
@@ -4328,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>885</v>
       </c>
@@ -4351,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>61</v>
       </c>
@@ -4374,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>723</v>
       </c>
@@ -4397,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>299</v>
       </c>
@@ -4420,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>843</v>
       </c>
@@ -4443,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>699</v>
       </c>
@@ -4466,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>286</v>
       </c>
@@ -4489,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>246</v>
       </c>
@@ -4512,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>917</v>
       </c>
@@ -4535,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>427</v>
       </c>
@@ -4558,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>414</v>
       </c>
@@ -4581,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>431</v>
       </c>
@@ -4604,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>484</v>
       </c>
@@ -4627,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>839</v>
       </c>
@@ -4647,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>727</v>
       </c>
@@ -4670,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>132</v>
       </c>
@@ -4693,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>947</v>
       </c>
@@ -4716,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>936</v>
       </c>
@@ -4739,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>256</v>
       </c>
@@ -4762,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>569</v>
       </c>
@@ -4785,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>668</v>
       </c>
@@ -4808,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>851</v>
       </c>
@@ -4831,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>229</v>
       </c>
@@ -4854,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>761</v>
       </c>
@@ -4877,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>313</v>
       </c>
@@ -4900,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>650</v>
       </c>
@@ -4923,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>27</v>
       </c>
@@ -4946,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>374</v>
       </c>
@@ -4969,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>294</v>
       </c>
@@ -4992,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>65</v>
       </c>
@@ -5015,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>996</v>
       </c>
@@ -5038,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>13</v>
       </c>
@@ -5061,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>45</v>
       </c>
@@ -5084,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>691</v>
       </c>
@@ -5107,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>344</v>
       </c>
@@ -5130,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>99</v>
       </c>
@@ -5153,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>822</v>
       </c>
@@ -5176,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>775</v>
       </c>
@@ -5199,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>510</v>
       </c>
@@ -5222,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>765</v>
       </c>
@@ -5245,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>888</v>
       </c>
@@ -5268,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>615</v>
       </c>
@@ -5291,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>463</v>
       </c>
@@ -5314,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>842</v>
       </c>
@@ -5337,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>46</v>
       </c>
@@ -5360,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>116</v>
       </c>
@@ -5383,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>141</v>
       </c>
@@ -5406,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>758</v>
       </c>
@@ -5429,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>626</v>
       </c>
@@ -5452,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>369</v>
       </c>
@@ -5475,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>172</v>
       </c>
@@ -5498,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>447</v>
       </c>
@@ -5521,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>725</v>
       </c>
@@ -5544,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>881</v>
       </c>
@@ -5567,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>193</v>
       </c>
@@ -5590,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>681</v>
       </c>
@@ -5613,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>455</v>
       </c>
@@ -5636,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>998</v>
       </c>
@@ -5659,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>672</v>
       </c>
@@ -5682,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>679</v>
       </c>
@@ -5705,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>963</v>
       </c>
@@ -5728,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>217</v>
       </c>
@@ -5751,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>152</v>
       </c>
@@ -5774,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>766</v>
       </c>
@@ -5797,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>647</v>
       </c>
@@ -5820,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>801</v>
       </c>
@@ -5843,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>356</v>
       </c>
@@ -5866,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>11</v>
       </c>
@@ -5889,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>232</v>
       </c>
@@ -5912,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>377</v>
       </c>
@@ -5935,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>15</v>
       </c>
@@ -5958,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>311</v>
       </c>
@@ -5981,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>477</v>
       </c>
@@ -6001,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>661</v>
       </c>
@@ -6024,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>937</v>
       </c>
@@ -6047,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>865</v>
       </c>
@@ -6070,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>933</v>
       </c>
@@ -6093,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>279</v>
       </c>
@@ -6116,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>667</v>
       </c>
@@ -6139,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>581</v>
       </c>
@@ -6162,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>212</v>
       </c>
@@ -6185,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>184</v>
       </c>
@@ -6208,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>579</v>
       </c>
@@ -6231,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>140</v>
       </c>
@@ -6254,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>200</v>
       </c>
@@ -6277,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>506</v>
       </c>
@@ -6300,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>786</v>
       </c>
@@ -6323,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>175</v>
       </c>
@@ -6346,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>884</v>
       </c>
@@ -6369,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>315</v>
       </c>
@@ -6392,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>489</v>
       </c>
@@ -6415,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>274</v>
       </c>
@@ -6438,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>244</v>
       </c>
@@ -6461,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>444</v>
       </c>
@@ -6484,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>308</v>
       </c>
@@ -6507,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>53</v>
       </c>
@@ -6530,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>999</v>
       </c>
@@ -6553,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>823</v>
       </c>
@@ -6576,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>514</v>
       </c>
@@ -6599,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>259</v>
       </c>
@@ -6622,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>830</v>
       </c>
@@ -6645,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>443</v>
       </c>
@@ -6668,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>675</v>
       </c>
@@ -6691,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>909</v>
       </c>
@@ -6714,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>945</v>
       </c>
@@ -6737,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>32</v>
       </c>
@@ -6760,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>153</v>
       </c>
@@ -6783,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>797</v>
       </c>
@@ -6806,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>16</v>
       </c>
@@ -6829,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>832</v>
       </c>
@@ -6852,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>848</v>
       </c>
@@ -6875,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>809</v>
       </c>
@@ -6898,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>957</v>
       </c>
@@ -6921,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>329</v>
       </c>
@@ -6944,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>425</v>
       </c>
@@ -6967,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>687</v>
       </c>
@@ -6990,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>810</v>
       </c>
@@ -7013,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>814</v>
       </c>
@@ -7036,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>588</v>
       </c>
@@ -7059,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>880</v>
       </c>
@@ -7082,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>613</v>
       </c>
@@ -7105,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>821</v>
       </c>
@@ -7128,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>639</v>
       </c>
@@ -7151,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>519</v>
       </c>
@@ -7174,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>787</v>
       </c>
@@ -7197,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>457</v>
       </c>
@@ -7220,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>43</v>
       </c>
@@ -7243,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>243</v>
       </c>
@@ -7266,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>693</v>
       </c>
@@ -7289,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>107</v>
       </c>
@@ -7312,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>192</v>
       </c>
@@ -7335,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>706</v>
       </c>
@@ -7358,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>920</v>
       </c>
@@ -7381,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>197</v>
       </c>
@@ -7404,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>833</v>
       </c>
@@ -7427,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>146</v>
       </c>
@@ -7450,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>348</v>
       </c>
@@ -7473,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>389</v>
       </c>
@@ -7496,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>806</v>
       </c>
@@ -7519,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>620</v>
       </c>
@@ -7542,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>528</v>
       </c>
@@ -7565,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>752</v>
       </c>
@@ -7588,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>55</v>
       </c>
@@ -7611,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>367</v>
       </c>
@@ -7634,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>617</v>
       </c>
@@ -7657,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>940</v>
       </c>
@@ -7680,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>501</v>
       </c>
@@ -7703,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>721</v>
       </c>
@@ -7726,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>751</v>
       </c>
@@ -7749,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>989</v>
       </c>
@@ -7772,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>656</v>
       </c>
@@ -7795,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>410</v>
       </c>
@@ -7818,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>927</v>
       </c>
@@ -7841,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>168</v>
       </c>
@@ -7864,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>48</v>
       </c>
@@ -7887,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>906</v>
       </c>
@@ -7910,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>166</v>
       </c>
@@ -7933,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>730</v>
       </c>
@@ -7956,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>74</v>
       </c>
@@ -7979,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>303</v>
       </c>
@@ -8002,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>164</v>
       </c>
@@ -8025,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>205</v>
       </c>
@@ -8048,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>258</v>
       </c>
@@ -8071,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>593</v>
       </c>
@@ -8094,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>732</v>
       </c>
@@ -8117,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>676</v>
       </c>
@@ -8140,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>239</v>
       </c>
@@ -8163,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>295</v>
       </c>
@@ -8186,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>347</v>
       </c>
@@ -8209,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>187</v>
       </c>
@@ -8232,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>508</v>
       </c>
@@ -8255,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>62</v>
       </c>
@@ -8278,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>649</v>
       </c>
@@ -8301,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>573</v>
       </c>
@@ -8324,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>858</v>
       </c>
@@ -8347,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>420</v>
       </c>
@@ -8370,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>870</v>
       </c>
@@ -8393,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>648</v>
       </c>
@@ -8416,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>872</v>
       </c>
@@ -8439,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>625</v>
       </c>
@@ -8462,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>827</v>
       </c>
@@ -8485,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>343</v>
       </c>
@@ -8508,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>728</v>
       </c>
@@ -8531,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>50</v>
       </c>
@@ -8554,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>434</v>
       </c>
@@ -8577,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>701</v>
       </c>
@@ -8600,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>836</v>
       </c>
@@ -8623,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>819</v>
       </c>
@@ -8646,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>225</v>
       </c>
@@ -8669,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>539</v>
       </c>
@@ -8689,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>934</v>
       </c>
@@ -8712,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>754</v>
       </c>
@@ -8735,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>97</v>
       </c>
@@ -8758,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>124</v>
       </c>
@@ -8781,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>844</v>
       </c>
@@ -8804,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>646</v>
       </c>
@@ -8827,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>697</v>
       </c>
@@ -8850,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>265</v>
       </c>
@@ -8873,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>394</v>
       </c>
@@ -8896,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>975</v>
       </c>
@@ -8919,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>604</v>
       </c>
@@ -8942,7 +8955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>318</v>
       </c>
@@ -8965,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>976</v>
       </c>
@@ -8988,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>110</v>
       </c>
@@ -9011,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>726</v>
       </c>
@@ -9034,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>353</v>
       </c>
@@ -9057,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>918</v>
       </c>
@@ -9080,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>384</v>
       </c>
@@ -9103,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>714</v>
       </c>
@@ -9123,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>757</v>
       </c>
@@ -9146,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>651</v>
       </c>
@@ -9169,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>574</v>
       </c>
@@ -9192,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>364</v>
       </c>
@@ -9212,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>607</v>
       </c>
@@ -9235,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>576</v>
       </c>
@@ -9258,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>331</v>
       </c>
@@ -9281,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>982</v>
       </c>
@@ -9304,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>877</v>
       </c>
@@ -9327,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>993</v>
       </c>
@@ -9350,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>974</v>
       </c>
@@ -9373,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>450</v>
       </c>
@@ -9396,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>60</v>
       </c>
@@ -9419,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>139</v>
       </c>
@@ -9442,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>690</v>
       </c>
@@ -9465,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>33</v>
       </c>
@@ -9488,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>189</v>
       </c>
@@ -9511,7 +9524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>850</v>
       </c>
@@ -9534,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>644</v>
       </c>
@@ -9557,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>715</v>
       </c>
@@ -9580,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>540</v>
       </c>
@@ -9603,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>507</v>
       </c>
@@ -9626,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>368</v>
       </c>
@@ -9649,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>674</v>
       </c>
@@ -9672,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>663</v>
       </c>
@@ -9695,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>224</v>
       </c>
@@ -9715,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>811</v>
       </c>
@@ -9738,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>591</v>
       </c>
@@ -9761,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>795</v>
       </c>
@@ -9784,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>69</v>
       </c>
@@ -9807,7 +9820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>429</v>
       </c>
@@ -9827,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>824</v>
       </c>
@@ -9850,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>992</v>
       </c>
@@ -9873,7 +9886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>119</v>
       </c>
@@ -9896,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>257</v>
       </c>
@@ -9919,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>883</v>
       </c>
@@ -9942,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>228</v>
       </c>
@@ -9965,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>285</v>
       </c>
@@ -9988,7 +10001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>966</v>
       </c>
@@ -10011,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>660</v>
       </c>
@@ -10034,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>860</v>
       </c>
@@ -10057,7 +10070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>781</v>
       </c>
@@ -10080,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>912</v>
       </c>
@@ -10103,7 +10116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>437</v>
       </c>
@@ -10126,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>724</v>
       </c>
@@ -10149,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>406</v>
       </c>
@@ -10172,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>234</v>
       </c>
@@ -10195,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>924</v>
       </c>
@@ -10218,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>109</v>
       </c>
@@ -10241,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>628</v>
       </c>
@@ -10264,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>304</v>
       </c>
@@ -10287,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>403</v>
       </c>
@@ -10310,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>190</v>
       </c>
@@ -10333,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>504</v>
       </c>
@@ -10356,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>476</v>
       </c>
@@ -10379,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>896</v>
       </c>
@@ -10402,7 +10415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>610</v>
       </c>
@@ -10425,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>202</v>
       </c>
@@ -10448,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>930</v>
       </c>
@@ -10471,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>882</v>
       </c>
@@ -10494,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>747</v>
       </c>
@@ -10517,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>346</v>
       </c>
@@ -10540,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1</v>
       </c>
@@ -10563,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>764</v>
       </c>
@@ -10586,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>612</v>
       </c>
@@ -10609,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>376</v>
       </c>
@@ -10632,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>894</v>
       </c>
@@ -10655,7 +10668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>105</v>
       </c>
@@ -10678,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>645</v>
       </c>
@@ -10701,7 +10714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>520</v>
       </c>
@@ -10724,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>956</v>
       </c>
@@ -10747,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>994</v>
       </c>
@@ -10770,7 +10783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>261</v>
       </c>
@@ -10793,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>666</v>
       </c>
@@ -10816,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>405</v>
       </c>
@@ -10839,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>486</v>
       </c>
@@ -10862,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>557</v>
       </c>
@@ -10885,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>642</v>
       </c>
@@ -10908,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>98</v>
       </c>
@@ -10931,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>392</v>
       </c>
@@ -10954,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>759</v>
       </c>
@@ -10977,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>731</v>
       </c>
@@ -11000,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>81</v>
       </c>
@@ -11023,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>534</v>
       </c>
@@ -11046,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>475</v>
       </c>
@@ -11069,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>913</v>
       </c>
@@ -11092,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>631</v>
       </c>
@@ -11115,7 +11128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>665</v>
       </c>
@@ -11138,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>879</v>
       </c>
@@ -11161,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>988</v>
       </c>
@@ -11184,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2</v>
       </c>
@@ -11207,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>473</v>
       </c>
@@ -11230,7 +11243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>527</v>
       </c>
@@ -11253,7 +11266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>93</v>
       </c>
@@ -11276,7 +11289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>337</v>
       </c>
@@ -11299,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>973</v>
       </c>
@@ -11322,7 +11335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>106</v>
       </c>
@@ -11345,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>474</v>
       </c>
@@ -11368,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>352</v>
       </c>
@@ -11391,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>694</v>
       </c>
@@ -11414,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>916</v>
       </c>
@@ -11437,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>366</v>
       </c>
@@ -11460,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>866</v>
       </c>
@@ -11483,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>262</v>
       </c>
@@ -11506,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>856</v>
       </c>
@@ -11529,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>494</v>
       </c>
@@ -11552,7 +11565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>737</v>
       </c>
@@ -11575,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>479</v>
       </c>
@@ -11598,7 +11611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>426</v>
       </c>
@@ -11621,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>941</v>
       </c>
@@ -11644,7 +11657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>892</v>
       </c>
@@ -11667,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>108</v>
       </c>
@@ -11690,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>914</v>
       </c>
@@ -11713,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>654</v>
       </c>
@@ -11736,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>720</v>
       </c>
@@ -11759,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>338</v>
       </c>
@@ -11782,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>211</v>
       </c>
@@ -11805,7 +11818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>351</v>
       </c>
@@ -11828,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>84</v>
       </c>
@@ -11851,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>481</v>
       </c>
@@ -11874,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>112</v>
       </c>
@@ -11897,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>319</v>
       </c>
@@ -11920,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>17</v>
       </c>
@@ -11943,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>408</v>
       </c>
@@ -11966,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>468</v>
       </c>
@@ -11989,7 +12002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>218</v>
       </c>
@@ -12009,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>126</v>
       </c>
@@ -12032,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>77</v>
       </c>
@@ -12055,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>423</v>
       </c>
@@ -12078,7 +12091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>700</v>
       </c>
@@ -12101,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>35</v>
       </c>
@@ -12124,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>901</v>
       </c>
@@ -12147,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>252</v>
       </c>
@@ -12170,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>678</v>
       </c>
@@ -12193,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>495</v>
       </c>
@@ -12216,7 +12229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>817</v>
       </c>
@@ -12239,7 +12252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>895</v>
       </c>
@@ -12262,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>863</v>
       </c>
@@ -12285,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>897</v>
       </c>
@@ -12308,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>867</v>
       </c>
@@ -12331,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>874</v>
       </c>
@@ -12354,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>467</v>
       </c>
@@ -12377,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>689</v>
       </c>
@@ -12400,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>619</v>
       </c>
@@ -12423,7 +12436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>89</v>
       </c>
@@ -12446,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>185</v>
       </c>
@@ -12469,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>203</v>
       </c>
@@ -12492,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>129</v>
       </c>
@@ -12515,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>490</v>
       </c>
@@ -12538,7 +12551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>592</v>
       </c>
@@ -12561,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>215</v>
       </c>
@@ -12584,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>522</v>
       </c>
@@ -12607,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>869</v>
       </c>
@@ -12630,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>745</v>
       </c>
@@ -12653,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>47</v>
       </c>
@@ -12676,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>10</v>
       </c>
@@ -12699,7 +12712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>388</v>
       </c>
@@ -12722,7 +12735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>171</v>
       </c>
@@ -12745,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>582</v>
       </c>
@@ -12768,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>743</v>
       </c>
@@ -12791,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>362</v>
       </c>
@@ -12814,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>248</v>
       </c>
@@ -12837,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>161</v>
       </c>
@@ -12860,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>828</v>
       </c>
@@ -12883,7 +12896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>266</v>
       </c>
@@ -12906,7 +12919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>499</v>
       </c>
@@ -12929,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>638</v>
       </c>
@@ -12952,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>206</v>
       </c>
@@ -12975,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>430</v>
       </c>
@@ -12998,7 +13011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>156</v>
       </c>
@@ -13021,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>696</v>
       </c>
@@ -13044,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>275</v>
       </c>
@@ -13067,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>554</v>
       </c>
@@ -13090,7 +13103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>138</v>
       </c>
@@ -13113,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>771</v>
       </c>
@@ -13136,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>68</v>
       </c>
@@ -13159,7 +13172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>902</v>
       </c>
@@ -13182,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>748</v>
       </c>
@@ -13202,7 +13215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>887</v>
       </c>
@@ -13225,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>641</v>
       </c>
@@ -13248,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>558</v>
       </c>
@@ -13271,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>34</v>
       </c>
@@ -13294,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>548</v>
       </c>
@@ -13317,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>513</v>
       </c>
@@ -13340,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>415</v>
       </c>
@@ -13363,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>776</v>
       </c>
@@ -13386,7 +13399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>722</v>
       </c>
@@ -13409,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>409</v>
       </c>
@@ -13432,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>482</v>
       </c>
@@ -13455,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>387</v>
       </c>
@@ -13478,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>20</v>
       </c>
@@ -13501,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>113</v>
       </c>
@@ -13524,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>207</v>
       </c>
@@ -13547,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>959</v>
       </c>
@@ -13570,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>923</v>
       </c>
@@ -13593,7 +13606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>278</v>
       </c>
@@ -13616,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>632</v>
       </c>
@@ -13639,7 +13652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>12</v>
       </c>
@@ -13662,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>128</v>
       </c>
@@ -13685,7 +13698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>310</v>
       </c>
@@ -13708,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>503</v>
       </c>
@@ -13731,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>735</v>
       </c>
@@ -13754,7 +13767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>712</v>
       </c>
@@ -13777,7 +13790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>903</v>
       </c>
@@ -13800,7 +13813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>92</v>
       </c>
@@ -13823,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>199</v>
       </c>
@@ -13843,7 +13856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>176</v>
       </c>
@@ -13866,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>553</v>
       </c>
@@ -13889,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>95</v>
       </c>
@@ -13912,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>94</v>
       </c>
@@ -13935,7 +13948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>736</v>
       </c>
@@ -13958,7 +13971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>111</v>
       </c>
@@ -13981,7 +13994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>662</v>
       </c>
@@ -14004,7 +14017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>201</v>
       </c>
@@ -14027,7 +14040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>531</v>
       </c>
@@ -14050,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>290</v>
       </c>
@@ -14073,7 +14086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>950</v>
       </c>
@@ -14096,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>436</v>
       </c>
@@ -14119,7 +14132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>584</v>
       </c>
@@ -14142,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>40</v>
       </c>
@@ -14165,7 +14178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>922</v>
       </c>
@@ -14188,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>785</v>
       </c>
@@ -14211,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>596</v>
       </c>
@@ -14234,7 +14247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>22</v>
       </c>
@@ -14257,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>977</v>
       </c>
@@ -14280,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>135</v>
       </c>
@@ -14303,7 +14316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>150</v>
       </c>
@@ -14326,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>8</v>
       </c>
@@ -14349,7 +14362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>18</v>
       </c>
@@ -14372,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>323</v>
       </c>
@@ -14395,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>946</v>
       </c>
@@ -14418,7 +14431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>886</v>
       </c>
@@ -14438,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>142</v>
       </c>
@@ -14461,7 +14474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>191</v>
       </c>
@@ -14484,7 +14497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>260</v>
       </c>
@@ -14507,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>448</v>
       </c>
@@ -14530,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>768</v>
       </c>
@@ -14553,7 +14566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>853</v>
       </c>
@@ -14576,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>862</v>
       </c>
@@ -14599,7 +14612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>382</v>
       </c>
@@ -14622,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>178</v>
       </c>
@@ -14645,7 +14658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>816</v>
       </c>
@@ -14668,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>280</v>
       </c>
@@ -14691,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>117</v>
       </c>
@@ -14714,7 +14727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>454</v>
       </c>
@@ -14737,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>143</v>
       </c>
@@ -14760,7 +14773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>859</v>
       </c>
@@ -14783,7 +14796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>223</v>
       </c>
@@ -14806,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>571</v>
       </c>
@@ -14829,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>321</v>
       </c>
@@ -14852,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>306</v>
       </c>
@@ -14875,7 +14888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>812</v>
       </c>
@@ -14898,7 +14911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>182</v>
       </c>
@@ -14921,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>594</v>
       </c>
@@ -14944,7 +14957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>70</v>
       </c>
@@ -14967,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>30</v>
       </c>
@@ -14990,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>686</v>
       </c>
@@ -15013,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>971</v>
       </c>
@@ -15033,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>312</v>
       </c>
@@ -15056,7 +15069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>336</v>
       </c>
@@ -15079,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>31</v>
       </c>
@@ -15102,7 +15115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>565</v>
       </c>
@@ -15125,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>293</v>
       </c>
@@ -15148,7 +15161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>159</v>
       </c>
@@ -15171,7 +15184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>568</v>
       </c>
@@ -15194,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>75</v>
       </c>
@@ -15217,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>37</v>
       </c>
@@ -15240,7 +15253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>78</v>
       </c>
@@ -15263,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>852</v>
       </c>
@@ -15286,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>79</v>
       </c>
@@ -15309,7 +15322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>541</v>
       </c>
@@ -15332,7 +15345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>4</v>
       </c>
@@ -15355,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>837</v>
       </c>
@@ -15378,7 +15391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>970</v>
       </c>
@@ -15398,7 +15411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>788</v>
       </c>
@@ -15421,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>807</v>
       </c>
@@ -15444,7 +15457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>779</v>
       </c>
@@ -15467,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>412</v>
       </c>
@@ -15490,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>241</v>
       </c>
@@ -15513,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>1000</v>
       </c>
@@ -15536,7 +15549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>174</v>
       </c>
@@ -15559,7 +15572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>56</v>
       </c>
@@ -15582,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>393</v>
       </c>
@@ -15605,7 +15618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>458</v>
       </c>
@@ -15628,7 +15641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>683</v>
       </c>
@@ -15648,7 +15661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>204</v>
       </c>
@@ -15671,7 +15684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>227</v>
       </c>
@@ -15694,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>267</v>
       </c>
@@ -15717,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>57</v>
       </c>
@@ -15740,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>395</v>
       </c>
@@ -15763,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>38</v>
       </c>
@@ -15786,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>23</v>
       </c>
@@ -15809,7 +15822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>101</v>
       </c>
@@ -15832,7 +15845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>28</v>
       </c>
@@ -15855,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>253</v>
       </c>
@@ -15878,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>949</v>
       </c>
@@ -15901,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>238</v>
       </c>
@@ -15924,7 +15937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>552</v>
       </c>
@@ -15947,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>904</v>
       </c>
@@ -15970,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>488</v>
       </c>
@@ -15993,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>595</v>
       </c>
@@ -16016,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>58</v>
       </c>
@@ -16039,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>915</v>
       </c>
@@ -16062,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>277</v>
       </c>
@@ -16085,7 +16098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>784</v>
       </c>
@@ -16108,7 +16121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>334</v>
       </c>
@@ -16131,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>783</v>
       </c>
@@ -16154,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>42</v>
       </c>
@@ -16177,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>263</v>
       </c>
@@ -16200,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>131</v>
       </c>
@@ -16223,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>87</v>
       </c>
@@ -16246,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>710</v>
       </c>
@@ -16269,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>873</v>
       </c>
@@ -16292,7 +16305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>309</v>
       </c>
@@ -16315,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>289</v>
       </c>
@@ -16338,7 +16351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>195</v>
       </c>
@@ -16361,7 +16374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>750</v>
       </c>
@@ -16384,7 +16397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>953</v>
       </c>
@@ -16407,7 +16420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>6</v>
       </c>
@@ -16430,7 +16443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>533</v>
       </c>
@@ -16453,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>385</v>
       </c>
@@ -16476,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>421</v>
       </c>
@@ -16499,7 +16512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>777</v>
       </c>
@@ -16522,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>919</v>
       </c>
@@ -16545,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>605</v>
       </c>
@@ -16568,7 +16581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>381</v>
       </c>
@@ -16591,7 +16604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>401</v>
       </c>
@@ -16614,7 +16627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>273</v>
       </c>
@@ -16637,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>7</v>
       </c>
@@ -16660,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>413</v>
       </c>
@@ -16683,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>435</v>
       </c>
@@ -16706,7 +16719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>670</v>
       </c>
@@ -16729,7 +16742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>791</v>
       </c>
@@ -16752,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>708</v>
       </c>
@@ -16775,7 +16788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>357</v>
       </c>
@@ -16798,7 +16811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>220</v>
       </c>
@@ -16821,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>151</v>
       </c>
@@ -16844,7 +16857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>485</v>
       </c>
@@ -16867,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>991</v>
       </c>
@@ -16890,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>214</v>
       </c>
@@ -16913,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>371</v>
       </c>
@@ -16936,7 +16949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>209</v>
       </c>
@@ -16959,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>586</v>
       </c>
@@ -16982,7 +16995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>962</v>
       </c>
@@ -17005,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>66</v>
       </c>
@@ -17028,7 +17041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>742</v>
       </c>
@@ -17051,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>432</v>
       </c>
@@ -17074,7 +17087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>755</v>
       </c>
@@ -17097,7 +17110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>462</v>
       </c>
@@ -17120,7 +17133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>796</v>
       </c>
@@ -17143,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>671</v>
       </c>
@@ -17166,7 +17179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>532</v>
       </c>
@@ -17189,7 +17202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>386</v>
       </c>
@@ -17212,7 +17225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>130</v>
       </c>
@@ -17235,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>314</v>
       </c>
@@ -17258,7 +17271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>49</v>
       </c>
@@ -17281,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>496</v>
       </c>
@@ -17304,7 +17317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>365</v>
       </c>
@@ -17327,7 +17340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>551</v>
       </c>
@@ -17350,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>149</v>
       </c>
@@ -17373,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>688</v>
       </c>
@@ -17396,7 +17409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>854</v>
       </c>
@@ -17419,7 +17432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>640</v>
       </c>
@@ -17442,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>360</v>
       </c>
@@ -17465,7 +17478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>746</v>
       </c>
@@ -17488,7 +17501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>398</v>
       </c>
@@ -17511,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>972</v>
       </c>
@@ -17534,7 +17547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>379</v>
       </c>
@@ -17557,7 +17570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>578</v>
       </c>
@@ -17580,7 +17593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>718</v>
       </c>
@@ -17603,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>799</v>
       </c>
@@ -17626,7 +17639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>695</v>
       </c>
@@ -17649,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>222</v>
       </c>
@@ -17672,7 +17685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>692</v>
       </c>
@@ -17695,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>136</v>
       </c>
@@ -17718,7 +17731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>115</v>
       </c>
@@ -17741,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>51</v>
       </c>
@@ -17764,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>300</v>
       </c>
@@ -17787,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>655</v>
       </c>
@@ -17810,7 +17823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>247</v>
       </c>
@@ -17833,7 +17846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>744</v>
       </c>
@@ -17856,7 +17869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>547</v>
       </c>
@@ -17879,7 +17892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>549</v>
       </c>
@@ -17902,7 +17915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>536</v>
       </c>
@@ -17925,7 +17938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>451</v>
       </c>
@@ -17948,7 +17961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>658</v>
       </c>
@@ -17971,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>717</v>
       </c>
@@ -17994,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>629</v>
       </c>
@@ -18017,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>603</v>
       </c>
@@ -18040,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>19</v>
       </c>
@@ -18063,7 +18076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>145</v>
       </c>
@@ -18086,7 +18099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>270</v>
       </c>
@@ -18109,7 +18122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>602</v>
       </c>
@@ -18132,7 +18145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>469</v>
       </c>
@@ -18155,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>622</v>
       </c>
@@ -18178,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>529</v>
       </c>
@@ -18198,7 +18211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>598</v>
       </c>
@@ -18221,7 +18234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>855</v>
       </c>
@@ -18244,7 +18257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>526</v>
       </c>
@@ -18267,7 +18280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>773</v>
       </c>
@@ -18290,7 +18303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>317</v>
       </c>
@@ -18313,7 +18326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>439</v>
       </c>
@@ -18336,7 +18349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>383</v>
       </c>
@@ -18359,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>878</v>
       </c>
@@ -18382,7 +18395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>339</v>
       </c>
@@ -18405,7 +18418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>320</v>
       </c>
@@ -18428,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>249</v>
       </c>
@@ -18451,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>871</v>
       </c>
@@ -18474,7 +18487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>154</v>
       </c>
@@ -18497,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>502</v>
       </c>
@@ -18520,7 +18533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>543</v>
       </c>
@@ -18543,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>733</v>
       </c>
@@ -18566,7 +18579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>433</v>
       </c>
@@ -18589,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>969</v>
       </c>
@@ -18612,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>345</v>
       </c>
@@ -18635,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>893</v>
       </c>
@@ -18658,7 +18671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>899</v>
       </c>
@@ -18681,7 +18694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>659</v>
       </c>
@@ -18704,7 +18717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>734</v>
       </c>
@@ -18727,7 +18740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>772</v>
       </c>
@@ -18750,7 +18763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>333</v>
       </c>
@@ -18773,7 +18786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>509</v>
       </c>
@@ -18796,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>965</v>
       </c>
@@ -18819,7 +18832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>179</v>
       </c>
@@ -18842,7 +18855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>390</v>
       </c>
@@ -18865,7 +18878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>230</v>
       </c>
@@ -18888,7 +18901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>803</v>
       </c>
@@ -18911,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>524</v>
       </c>
@@ -18934,7 +18947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>255</v>
       </c>
@@ -18957,7 +18970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>9</v>
       </c>
@@ -18980,7 +18993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>875</v>
       </c>
@@ -19003,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>911</v>
       </c>
@@ -19026,7 +19039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>857</v>
       </c>
@@ -19049,7 +19062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>738</v>
       </c>
@@ -19072,7 +19085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>442</v>
       </c>
@@ -19095,7 +19108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>125</v>
       </c>
@@ -19118,7 +19131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>186</v>
       </c>
@@ -19141,7 +19154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>235</v>
       </c>
@@ -19164,7 +19177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>545</v>
       </c>
@@ -19187,7 +19200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>770</v>
       </c>
@@ -19210,7 +19223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>753</v>
       </c>
@@ -19233,7 +19246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>790</v>
       </c>
@@ -19256,7 +19269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>29</v>
       </c>
@@ -19279,7 +19292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>226</v>
       </c>
@@ -19302,7 +19315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>305</v>
       </c>
@@ -19325,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>898</v>
       </c>
@@ -19348,7 +19361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>570</v>
       </c>
@@ -19371,7 +19384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>967</v>
       </c>
@@ -19394,7 +19407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>928</v>
       </c>
@@ -19417,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>739</v>
       </c>
@@ -19440,7 +19453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>341</v>
       </c>
@@ -19463,7 +19476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>100</v>
       </c>
@@ -19486,7 +19499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>63</v>
       </c>
@@ -19509,7 +19522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>465</v>
       </c>
@@ -19532,7 +19545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>72</v>
       </c>
@@ -19555,7 +19568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>636</v>
       </c>
@@ -19578,7 +19591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>183</v>
       </c>
@@ -19601,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>983</v>
       </c>
@@ -19624,7 +19637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>188</v>
       </c>
@@ -19647,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>698</v>
       </c>
@@ -19670,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>282</v>
       </c>
@@ -19693,7 +19706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>219</v>
       </c>
@@ -19716,7 +19729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>530</v>
       </c>
@@ -19739,7 +19752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>208</v>
       </c>
@@ -19762,7 +19775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>935</v>
       </c>
@@ -19785,7 +19798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>876</v>
       </c>
@@ -19808,7 +19821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>242</v>
       </c>
@@ -19831,7 +19844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>942</v>
       </c>
@@ -19854,7 +19867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>589</v>
       </c>
@@ -19877,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>271</v>
       </c>
@@ -19900,7 +19913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>173</v>
       </c>
@@ -19923,7 +19936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>440</v>
       </c>
@@ -19946,7 +19959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>938</v>
       </c>
@@ -19969,7 +19982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>861</v>
       </c>
@@ -19992,7 +20005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>609</v>
       </c>
@@ -20015,7 +20028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>269</v>
       </c>
@@ -20038,7 +20051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>990</v>
       </c>
@@ -20061,7 +20074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>76</v>
       </c>
@@ -20084,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>890</v>
       </c>
@@ -20107,7 +20120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>802</v>
       </c>
@@ -20130,7 +20143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>233</v>
       </c>
@@ -20153,7 +20166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>829</v>
       </c>
@@ -20176,7 +20189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>464</v>
       </c>
@@ -20199,7 +20212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>575</v>
       </c>
@@ -20222,7 +20235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>324</v>
       </c>
@@ -20245,7 +20258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>521</v>
       </c>
@@ -20268,7 +20281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>813</v>
       </c>
@@ -20291,7 +20304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>160</v>
       </c>
@@ -20314,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>181</v>
       </c>
@@ -20337,7 +20350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>96</v>
       </c>
@@ -20360,7 +20373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>762</v>
       </c>
@@ -20383,7 +20396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>516</v>
       </c>
@@ -20406,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>627</v>
       </c>
@@ -20429,7 +20442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>71</v>
       </c>
@@ -20452,7 +20465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>932</v>
       </c>
@@ -20475,7 +20488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>39</v>
       </c>
@@ -20498,7 +20511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>283</v>
       </c>
@@ -20521,7 +20534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>847</v>
       </c>
@@ -20542,6 +20555,109 @@
       </c>
       <c r="G857" t="b">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59C83C3-F66F-43C2-87BC-9BFF3CBA25A0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>73878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>45374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>78</v>
+      </c>
+      <c r="D11">
+        <v>7568</v>
       </c>
     </row>
   </sheetData>
@@ -20550,6 +20666,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9e706368-9a73-4dcc-9221-b8fc62424fbc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eb7c3fc1-ccd5-477b-94a4-7b6dc96a8d59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="9e706368-9a73-4dcc-9221-b8fc62424fbc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="eb7c3fc1-ccd5-477b-94a4-7b6dc96a8d59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A117C33DDE971642A3AD62E1BE8FB4A8" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e27b6b193086ccf2492fa4a1c3beb17a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eb7c3fc1-ccd5-477b-94a4-7b6dc96a8d59" xmlns:ns3="9e706368-9a73-4dcc-9221-b8fc62424fbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbe3fd12ddf180cd07389aecbb7c154" ns2:_="" ns3:_="">
     <xsd:import namespace="eb7c3fc1-ccd5-477b-94a4-7b6dc96a8d59"/>
@@ -20798,42 +20942,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9e706368-9a73-4dcc-9221-b8fc62424fbc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eb7c3fc1-ccd5-477b-94a4-7b6dc96a8d59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="9e706368-9a73-4dcc-9221-b8fc62424fbc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="eb7c3fc1-ccd5-477b-94a4-7b6dc96a8d59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11F63CD4-88DE-4B93-A06D-7E3838E40C3B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8089BC-75FC-46DD-A612-B351AC22DDDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9e706368-9a73-4dcc-9221-b8fc62424fbc"/>
+    <ds:schemaRef ds:uri="eb7c3fc1-ccd5-477b-94a4-7b6dc96a8d59"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FA3F15-2530-454D-8E60-54DF75AE1A9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FA3F15-2530-454D-8E60-54DF75AE1A9E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8089BC-75FC-46DD-A612-B351AC22DDDA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11F63CD4-88DE-4B93-A06D-7E3838E40C3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="eb7c3fc1-ccd5-477b-94a4-7b6dc96a8d59"/>
+    <ds:schemaRef ds:uri="9e706368-9a73-4dcc-9221-b8fc62424fbc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>